--- a/CAVA.xlsx
+++ b/CAVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274BB66F-B875-4F45-8D00-A833FD167B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79462812-AB94-4B2B-B8F9-9B27A227DDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="210" windowWidth="20925" windowHeight="20520" activeTab="1" xr2:uid="{FA5389C5-A966-484C-B9A8-032DB52A420F}"/>
+    <workbookView xWindow="-26820" yWindow="780" windowWidth="26220" windowHeight="14910" activeTab="1" xr2:uid="{FA5389C5-A966-484C-B9A8-032DB52A420F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q2222</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -189,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -206,11 +218,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,15 +249,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>32845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -260,6 +275,56 @@
         <a:xfrm>
           <a:off x="9216259" y="32845"/>
           <a:ext cx="0" cy="7751379"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45983</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45983</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F657C9-EC9F-D5E4-EE5F-2D4130BD17A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6168259" y="59121"/>
+          <a:ext cx="0" cy="6266793"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -605,7 +670,7 @@
   <dimension ref="J2:L10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -615,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.2">
@@ -635,7 +700,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>15204.637273</v>
+        <v>16576.484245</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -667,7 +732,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>14860.889273000001</v>
+        <v>16232.736245</v>
       </c>
     </row>
     <row r="10" spans="10:12" x14ac:dyDescent="0.2">
@@ -685,116 +750,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A82FB-43F2-43B6-AB4A-E916E9DA41F1}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="3" max="13" width="10.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C2" s="8">
+    <row r="2" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="10">
+        <v>44752</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44836</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44920</v>
+      </c>
+      <c r="F2" s="10">
         <v>45032</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
+        <v>45116</v>
+      </c>
+      <c r="H2" s="10">
+        <v>45200</v>
+      </c>
+      <c r="I2" s="10">
+        <v>45291</v>
+      </c>
+      <c r="J2" s="10">
         <v>45403</v>
       </c>
-      <c r="L2" s="9">
+      <c r="K2" s="10">
+        <v>45487</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="8">
         <v>44561</v>
       </c>
-      <c r="M2" s="9">
+      <c r="P2" s="8">
         <v>44926</v>
       </c>
-      <c r="N2" s="9">
+      <c r="Q2" s="8">
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>2021</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>2022</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>2023</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>2024</v>
       </c>
-      <c r="P3">
-        <f>+O3+1</f>
+      <c r="S3">
+        <f t="shared" ref="S3:Z3" si="0">+R3+1</f>
         <v>2025</v>
       </c>
-      <c r="Q3">
-        <f>+P3+1</f>
+      <c r="T3">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="R3">
-        <f>+Q3+1</f>
+      <c r="U3">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="S3">
-        <f>+R3+1</f>
+      <c r="V3">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="T3">
-        <f>+S3+1</f>
+      <c r="W3">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="U3">
-        <f>+T3+1</f>
+      <c r="X3">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="V3">
-        <f>+U3+1</f>
+      <c r="Y3">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="W3">
-        <f>+V3+1</f>
+      <c r="Z3">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
@@ -806,1009 +903,1433 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="M4" s="3">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="P4" s="3">
         <v>237</v>
       </c>
-      <c r="N4" s="3">
+      <c r="Q4" s="3">
         <v>309</v>
       </c>
-      <c r="O4" s="3">
-        <f>+N4+100</f>
+      <c r="R4" s="3">
+        <f>+Q4+100</f>
         <v>409</v>
       </c>
-      <c r="P4" s="3">
-        <f>+O4+150</f>
+      <c r="S4" s="3">
+        <f>+R4+150</f>
         <v>559</v>
       </c>
-      <c r="Q4" s="3">
-        <f>+P4+200</f>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4:Z4" si="1">+S4+200</f>
         <v>759</v>
       </c>
-      <c r="R4" s="3">
-        <f>+Q4+200</f>
+      <c r="U4" s="3">
+        <f t="shared" si="1"/>
         <v>959</v>
       </c>
-      <c r="S4" s="3">
-        <f>+R4+200</f>
+      <c r="V4" s="3">
+        <f t="shared" si="1"/>
         <v>1159</v>
       </c>
-      <c r="T4" s="3">
-        <f>+S4+200</f>
+      <c r="W4" s="3">
+        <f t="shared" si="1"/>
         <v>1359</v>
       </c>
-      <c r="U4" s="3">
-        <f>+T4+200</f>
+      <c r="X4" s="3">
+        <f t="shared" si="1"/>
         <v>1559</v>
       </c>
-      <c r="V4" s="3">
-        <f>+U4+200</f>
+      <c r="Y4" s="3">
+        <f t="shared" si="1"/>
         <v>1759</v>
       </c>
-      <c r="W4" s="3">
-        <f>+V4+200</f>
+      <c r="Z4" s="3">
+        <f t="shared" si="1"/>
         <v>1959</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M5" s="1">
-        <f>+M7/M4</f>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="P5" s="1">
+        <f>+P7/P4</f>
         <v>2.3802489451476796</v>
       </c>
-      <c r="N5" s="1">
-        <f>+N7/N4</f>
+      <c r="Q5" s="1">
+        <f>+Q7/Q4</f>
         <v>2.3582524271844663</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6">
+        <v>135.91499999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>139.25800000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>129.935</v>
+      </c>
+      <c r="F7" s="6">
         <v>203.083</v>
       </c>
-      <c r="D7" s="6">
+      <c r="G7" s="6">
         <v>172.89400000000001</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
+        <v>175.553</v>
+      </c>
+      <c r="I7" s="6">
+        <v>177.17</v>
+      </c>
+      <c r="J7" s="6">
         <v>259.00599999999997</v>
       </c>
-      <c r="H7" s="6">
+      <c r="K7" s="6">
         <v>233.495</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
+        <f>+H7*1.3</f>
+        <v>228.21889999999999</v>
+      </c>
+      <c r="M7" s="6">
+        <f>+I7*1.3</f>
+        <v>230.321</v>
+      </c>
+      <c r="O7" s="5">
         <v>500.072</v>
       </c>
-      <c r="M7" s="5">
+      <c r="P7" s="5">
         <v>564.11900000000003</v>
       </c>
-      <c r="N7" s="5">
+      <c r="Q7" s="5">
         <v>728.7</v>
       </c>
-      <c r="O7" s="5">
-        <f>+O4*2.36</f>
+      <c r="R7" s="5">
+        <f>+R4*2.36</f>
         <v>965.2399999999999</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" ref="P7:W7" si="0">+P4*2.36</f>
+      <c r="S7" s="5">
+        <f t="shared" ref="S7:Z7" si="2">+S4*2.36</f>
         <v>1319.24</v>
       </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="0"/>
+      <c r="T7" s="5">
+        <f t="shared" si="2"/>
         <v>1791.24</v>
       </c>
-      <c r="R7" s="5">
-        <f t="shared" si="0"/>
+      <c r="U7" s="5">
+        <f t="shared" si="2"/>
         <v>2263.2399999999998</v>
       </c>
-      <c r="S7" s="5">
-        <f t="shared" si="0"/>
+      <c r="V7" s="5">
+        <f t="shared" si="2"/>
         <v>2735.24</v>
       </c>
-      <c r="T7" s="5">
-        <f t="shared" si="0"/>
+      <c r="W7" s="5">
+        <f t="shared" si="2"/>
         <v>3207.24</v>
       </c>
-      <c r="U7" s="5">
-        <f t="shared" si="0"/>
+      <c r="X7" s="5">
+        <f t="shared" si="2"/>
         <v>3679.24</v>
       </c>
-      <c r="V7" s="5">
-        <f t="shared" si="0"/>
+      <c r="Y7" s="5">
+        <f t="shared" si="2"/>
         <v>4151.24</v>
       </c>
-      <c r="W7" s="5">
-        <f t="shared" si="0"/>
+      <c r="Z7" s="5">
+        <f t="shared" si="2"/>
         <v>4623.24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
+        <v>43.741</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44.616999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>40.725999999999999</v>
+      </c>
+      <c r="F8" s="4">
         <v>59.118000000000002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="G8" s="4">
         <v>51</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
+        <v>51.817999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>51.521999999999998</v>
+      </c>
+      <c r="J8" s="4">
         <v>73.947000000000003</v>
       </c>
-      <c r="H8" s="4">
+      <c r="K8" s="4">
         <v>68.838999999999999</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="3">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="3">
         <v>154.77199999999999</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>179.988</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>213.458</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
+        <v>37.731000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37.192999999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>35.945</v>
+      </c>
+      <c r="F9" s="4">
         <v>52.154000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="G9" s="4">
         <v>42.417000000000002</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
+        <v>43.912999999999997</v>
+      </c>
+      <c r="I9" s="4">
+        <v>48.841999999999999</v>
+      </c>
+      <c r="J9" s="4">
         <v>66.513000000000005</v>
       </c>
-      <c r="H9" s="4">
+      <c r="K9" s="4">
         <v>58.387999999999998</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="3">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="3">
         <v>143.39500000000001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>157.89099999999999</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>187.32599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
+        <v>12.214</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.302</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12.413</v>
+      </c>
+      <c r="F10" s="4">
         <v>16.599</v>
       </c>
-      <c r="D10" s="4">
+      <c r="G10" s="4">
         <v>13.4</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
+        <v>13.782</v>
+      </c>
+      <c r="I10" s="4">
+        <v>14.538</v>
+      </c>
+      <c r="J10" s="4">
         <v>20.422000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="K10" s="4">
         <v>15.917</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="3">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="3">
         <v>49.298999999999999</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>53.668999999999997</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>58.319000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4">
+        <v>16.623999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>18.738</v>
+      </c>
+      <c r="E11" s="4">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>24.648</v>
       </c>
-      <c r="D11" s="4">
+      <c r="G11" s="4">
         <v>20.646000000000001</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
+        <v>21.553000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>22.404</v>
+      </c>
+      <c r="J11" s="4">
         <v>32.758000000000003</v>
       </c>
-      <c r="H11" s="4">
+      <c r="K11" s="4">
         <v>27.991</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="3">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="3">
         <v>70.453000000000003</v>
       </c>
-      <c r="M11" s="3">
+      <c r="P11" s="3">
         <v>74.587000000000003</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q11" s="3">
         <v>89.251000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4">
         <f>SUM(C8:C11)</f>
-        <v>152.51900000000001</v>
+        <v>110.31</v>
       </c>
       <c r="D12" s="4">
         <f>SUM(D8:D11)</f>
-        <v>127.46300000000001</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>112.85</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(E8:E11)</f>
+        <v>106.10799999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM(F8:F11)</f>
+        <v>152.51900000000001</v>
+      </c>
       <c r="G12" s="4">
         <f>SUM(G8:G11)</f>
-        <v>193.64000000000001</v>
+        <v>127.46300000000001</v>
       </c>
       <c r="H12" s="4">
         <f>SUM(H8:H11)</f>
+        <v>131.066</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM(I8:I11)</f>
+        <v>137.30600000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUM(J8:J11)</f>
+        <v>193.64000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM(K8:K11)</f>
         <v>171.13499999999999</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="4">
-        <f>SUM(L8:L11)</f>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="4">
+        <f>SUM(O8:O11)</f>
         <v>417.91899999999998</v>
       </c>
-      <c r="M12" s="4">
-        <f>SUM(M8:M11)</f>
+      <c r="P12" s="4">
+        <f>SUM(P8:P11)</f>
         <v>466.13499999999999</v>
       </c>
-      <c r="N12" s="4">
-        <f>SUM(N8:N11)</f>
+      <c r="Q12" s="4">
+        <f>SUM(Q8:Q11)</f>
         <v>548.35400000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4">
         <f>+C7-C12</f>
-        <v>50.563999999999993</v>
+        <v>25.60499999999999</v>
       </c>
       <c r="D13" s="4">
         <f>+D7-D12</f>
-        <v>45.430999999999997</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>26.408000000000015</v>
+      </c>
+      <c r="E13" s="4">
+        <f>+E7-E12</f>
+        <v>23.827000000000012</v>
+      </c>
+      <c r="F13" s="4">
+        <f>+F7-F12</f>
+        <v>50.563999999999993</v>
+      </c>
       <c r="G13" s="4">
         <f>+G7-G12</f>
-        <v>65.365999999999957</v>
+        <v>45.430999999999997</v>
       </c>
       <c r="H13" s="4">
         <f>+H7-H12</f>
+        <v>44.486999999999995</v>
+      </c>
+      <c r="I13" s="4">
+        <f>+I7-I12</f>
+        <v>39.863999999999976</v>
+      </c>
+      <c r="J13" s="4">
+        <f>+J7-J12</f>
+        <v>65.365999999999957</v>
+      </c>
+      <c r="K13" s="4">
+        <f>+K7-K12</f>
         <v>62.360000000000014</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
       <c r="L13" s="4">
-        <f>+L7-L12</f>
+        <f>+L7*0.28</f>
+        <v>63.901292000000005</v>
+      </c>
+      <c r="M13" s="4">
+        <f>+M7*0.28</f>
+        <v>64.489879999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <f>+O7-O12</f>
         <v>82.15300000000002</v>
       </c>
-      <c r="M13" s="4">
-        <f>+M7-M12</f>
+      <c r="P13" s="4">
+        <f>+P7-P12</f>
         <v>97.984000000000037</v>
       </c>
-      <c r="N13" s="4">
-        <f>+N7-N12</f>
+      <c r="Q13" s="4">
+        <f>+Q7-Q12</f>
         <v>180.346</v>
       </c>
-      <c r="O13" s="3">
-        <f>+O7*0.26</f>
+      <c r="R13" s="3">
+        <f>+R7*0.26</f>
         <v>250.96239999999997</v>
       </c>
-      <c r="P13" s="3">
-        <f>+P7*0.28</f>
+      <c r="S13" s="3">
+        <f>+S7*0.28</f>
         <v>369.38720000000006</v>
       </c>
-      <c r="Q13" s="3">
-        <f>+Q7*0.3</f>
+      <c r="T13" s="3">
+        <f>+T7*0.3</f>
         <v>537.37199999999996</v>
       </c>
-      <c r="R13" s="3">
-        <f>+R7*0.32</f>
+      <c r="U13" s="3">
+        <f>+U7*0.32</f>
         <v>724.2367999999999</v>
       </c>
-      <c r="S13" s="3">
-        <f>+S7*0.34</f>
+      <c r="V13" s="3">
+        <f>+V7*0.34</f>
         <v>929.98159999999996</v>
       </c>
-      <c r="T13" s="3">
-        <f>+T7*0.36</f>
+      <c r="W13" s="3">
+        <f>+W7*0.36</f>
         <v>1154.6063999999999</v>
       </c>
-      <c r="U13" s="3">
-        <f>+U7*0.38</f>
+      <c r="X13" s="3">
+        <f>+X7*0.38</f>
         <v>1398.1111999999998</v>
       </c>
-      <c r="V13" s="3">
-        <f>+V7*0.4</f>
+      <c r="Y13" s="3">
+        <f>+Y7*0.4</f>
         <v>1660.4960000000001</v>
       </c>
-      <c r="W13" s="3">
-        <f>+W7*0.42</f>
+      <c r="Z13" s="3">
+        <f>+Z7*0.42</f>
         <v>1941.7607999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4">
+        <v>16.283999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.547000000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16.268999999999998</v>
+      </c>
+      <c r="F14" s="4">
         <v>29.024000000000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="G14" s="4">
         <v>23.321000000000002</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
+        <v>24.472000000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="J14" s="4">
         <v>33.840000000000003</v>
       </c>
-      <c r="H14" s="4">
+      <c r="K14" s="4">
         <v>28.280999999999999</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
+        <f>+H14</f>
+        <v>24.472000000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <f>+I14</f>
+        <v>24.673999999999999</v>
+      </c>
+      <c r="O14" s="3">
         <v>64.792000000000002</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>70.037000000000006</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>101.491</v>
       </c>
-      <c r="O14" s="3">
-        <f>+N14*1.05</f>
+      <c r="R14" s="3">
+        <f>+Q14*1.05</f>
         <v>106.56555</v>
       </c>
-      <c r="P14" s="3">
-        <f t="shared" ref="P14:W14" si="1">+O14*1.05</f>
+      <c r="S14" s="3">
+        <f t="shared" ref="S14:Z14" si="3">+R14*1.05</f>
         <v>111.8938275</v>
       </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+      <c r="T14" s="3">
+        <f t="shared" si="3"/>
         <v>117.48851887500001</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" si="1"/>
+      <c r="U14" s="3">
+        <f t="shared" si="3"/>
         <v>123.36294481875002</v>
       </c>
-      <c r="S14" s="3">
-        <f t="shared" si="1"/>
+      <c r="V14" s="3">
+        <f t="shared" si="3"/>
         <v>129.53109205968752</v>
       </c>
-      <c r="T14" s="3">
-        <f t="shared" si="1"/>
+      <c r="W14" s="3">
+        <f t="shared" si="3"/>
         <v>136.0076466626719</v>
       </c>
-      <c r="U14" s="3">
-        <f t="shared" si="1"/>
+      <c r="X14" s="3">
+        <f t="shared" si="3"/>
         <v>142.8080289958055</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" si="1"/>
+      <c r="Y14" s="3">
+        <f t="shared" si="3"/>
         <v>149.94843044559579</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" si="1"/>
+      <c r="Z14" s="3">
+        <f t="shared" si="3"/>
         <v>157.4458519678756</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4">
         <f>+C13-C14</f>
-        <v>21.539999999999992</v>
+        <v>9.3209999999999908</v>
       </c>
       <c r="D15" s="4">
         <f>+D13-D14</f>
-        <v>22.109999999999996</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+        <v>9.8610000000000149</v>
+      </c>
+      <c r="E15" s="4">
+        <f>+E13-E14</f>
+        <v>7.558000000000014</v>
+      </c>
+      <c r="F15" s="4">
+        <f>+F13-F14</f>
+        <v>21.539999999999992</v>
+      </c>
       <c r="G15" s="4">
         <f>+G13-G14</f>
-        <v>31.525999999999954</v>
+        <v>22.109999999999996</v>
       </c>
       <c r="H15" s="4">
         <f>+H13-H14</f>
+        <v>20.014999999999993</v>
+      </c>
+      <c r="I15" s="4">
+        <f>+I13-I14</f>
+        <v>15.189999999999976</v>
+      </c>
+      <c r="J15" s="4">
+        <f>+J13-J14</f>
+        <v>31.525999999999954</v>
+      </c>
+      <c r="K15" s="4">
+        <f>+K13-K14</f>
         <v>34.079000000000015</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
       <c r="L15" s="4">
         <f>+L13-L14</f>
-        <v>17.361000000000018</v>
+        <v>39.429292000000004</v>
       </c>
       <c r="M15" s="4">
         <f>+M13-M14</f>
+        <v>39.81588</v>
+      </c>
+      <c r="O15" s="4">
+        <f>+O13-O14</f>
+        <v>17.361000000000018</v>
+      </c>
+      <c r="P15" s="4">
+        <f>+P13-P14</f>
         <v>27.947000000000031</v>
       </c>
-      <c r="N15" s="4">
-        <f>+N13-N14</f>
+      <c r="Q15" s="4">
+        <f>+Q13-Q14</f>
         <v>78.855000000000004</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" ref="O15:W15" si="2">+O13-O14</f>
+      <c r="R15" s="4">
+        <f t="shared" ref="R15:Z15" si="4">+R13-R14</f>
         <v>144.39684999999997</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="2"/>
+      <c r="S15" s="4">
+        <f t="shared" si="4"/>
         <v>257.49337250000008</v>
       </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="2"/>
+      <c r="T15" s="4">
+        <f t="shared" si="4"/>
         <v>419.88348112499995</v>
       </c>
-      <c r="R15" s="4">
-        <f t="shared" si="2"/>
+      <c r="U15" s="4">
+        <f t="shared" si="4"/>
         <v>600.87385518124984</v>
       </c>
-      <c r="S15" s="4">
-        <f t="shared" si="2"/>
+      <c r="V15" s="4">
+        <f t="shared" si="4"/>
         <v>800.45050794031249</v>
       </c>
-      <c r="T15" s="4">
-        <f t="shared" si="2"/>
+      <c r="W15" s="4">
+        <f t="shared" si="4"/>
         <v>1018.5987533373279</v>
       </c>
-      <c r="U15" s="4">
-        <f t="shared" si="2"/>
+      <c r="X15" s="4">
+        <f t="shared" si="4"/>
         <v>1255.3031710041944</v>
       </c>
-      <c r="V15" s="4">
-        <f t="shared" si="2"/>
+      <c r="Y15" s="4">
+        <f t="shared" si="4"/>
         <v>1510.5475695544044</v>
       </c>
-      <c r="W15" s="4">
-        <f t="shared" si="2"/>
+      <c r="Z15" s="4">
+        <f t="shared" si="4"/>
         <v>1784.3149480321242</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="4">
+        <f>-0.034+0.198</f>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f>0.115+0.188</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <f>0.215+0.275</f>
+        <v>0.49</v>
+      </c>
+      <c r="F16" s="4">
         <f>0.174-0.025</f>
         <v>0.14899999999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="G16" s="4">
         <f>0.699+0.118</f>
         <v>0.81699999999999995</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
+        <f>3.956+0.12</f>
+        <v>4.0759999999999996</v>
+      </c>
+      <c r="I16" s="4">
+        <f>4.222+0.059</f>
+        <v>4.2810000000000006</v>
+      </c>
+      <c r="J16" s="4">
         <f>4.914+0.078</f>
         <v>4.992</v>
       </c>
-      <c r="H16" s="4">
+      <c r="K16" s="4">
         <f>3.824+0.06</f>
         <v>3.8839999999999999</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
+        <f>+K16</f>
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <f>+L16</f>
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="O16" s="3">
         <v>-4.8099999999999996</v>
       </c>
-      <c r="M16" s="3">
+      <c r="P16" s="3">
         <v>-4.7E-2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="Q16" s="3">
         <v>8.8520000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:F17" si="3">+C15+C16</f>
+        <f t="shared" ref="C17:D17" si="5">+C15+C16</f>
+        <v>9.4849999999999905</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="5"/>
+        <v>10.164000000000016</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:I17" si="6">+E15+E16</f>
+        <v>8.0480000000000143</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>21.688999999999993</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="3"/>
+      <c r="G17" s="4">
+        <f t="shared" si="6"/>
         <v>22.926999999999996</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <f>+G15+G16</f>
+      <c r="H17" s="4">
+        <f t="shared" si="6"/>
+        <v>24.090999999999994</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="6"/>
+        <v>19.470999999999975</v>
+      </c>
+      <c r="J17" s="4">
+        <f>+J15+J16</f>
         <v>36.517999999999951</v>
       </c>
-      <c r="H17" s="4">
-        <f>+H15+H16</f>
+      <c r="K17" s="4">
+        <f>+K15+K16</f>
         <v>37.963000000000015</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
       <c r="L17" s="4">
         <f>+L15+L16</f>
-        <v>12.55100000000002</v>
+        <v>43.313292000000004</v>
       </c>
       <c r="M17" s="4">
         <f>+M15+M16</f>
+        <v>43.69988</v>
+      </c>
+      <c r="O17" s="4">
+        <f>+O15+O16</f>
+        <v>12.55100000000002</v>
+      </c>
+      <c r="P17" s="4">
+        <f>+P15+P16</f>
         <v>27.900000000000031</v>
       </c>
-      <c r="N17" s="4">
-        <f>+N15+N16</f>
+      <c r="Q17" s="4">
+        <f>+Q15+Q16</f>
         <v>87.707000000000008</v>
       </c>
-      <c r="O17" s="4">
-        <f t="shared" ref="O17:W17" si="4">+O15+O16</f>
+      <c r="R17" s="4">
+        <f t="shared" ref="R17:Z17" si="7">+R15+R16</f>
         <v>144.39684999999997</v>
       </c>
-      <c r="P17" s="4">
-        <f t="shared" si="4"/>
+      <c r="S17" s="4">
+        <f t="shared" si="7"/>
         <v>257.49337250000008</v>
       </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="4"/>
+      <c r="T17" s="4">
+        <f t="shared" si="7"/>
         <v>419.88348112499995</v>
       </c>
-      <c r="R17" s="4">
-        <f t="shared" si="4"/>
+      <c r="U17" s="4">
+        <f t="shared" si="7"/>
         <v>600.87385518124984</v>
       </c>
-      <c r="S17" s="4">
-        <f t="shared" si="4"/>
+      <c r="V17" s="4">
+        <f t="shared" si="7"/>
         <v>800.45050794031249</v>
       </c>
-      <c r="T17" s="4">
-        <f t="shared" si="4"/>
+      <c r="W17" s="4">
+        <f t="shared" si="7"/>
         <v>1018.5987533373279</v>
       </c>
-      <c r="U17" s="4">
-        <f t="shared" si="4"/>
+      <c r="X17" s="4">
+        <f t="shared" si="7"/>
         <v>1255.3031710041944</v>
       </c>
-      <c r="V17" s="4">
-        <f t="shared" si="4"/>
+      <c r="Y17" s="4">
+        <f t="shared" si="7"/>
         <v>1510.5475695544044</v>
       </c>
-      <c r="W17" s="4">
-        <f t="shared" si="4"/>
+      <c r="Z17" s="4">
+        <f t="shared" si="7"/>
         <v>1784.3149480321242</v>
       </c>
     </row>
-    <row r="18" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="G18" s="4">
         <v>0.04</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="J18" s="4">
         <v>0.252</v>
       </c>
-      <c r="H18" s="4">
+      <c r="K18" s="4">
         <v>0.28699999999999998</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
+        <f>+L17*0.1</f>
+        <v>4.3313292000000008</v>
+      </c>
+      <c r="M18" s="4">
+        <f>+M17*0.1</f>
+        <v>4.3699880000000002</v>
+      </c>
+      <c r="O18" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>0.76800000000000002</v>
-      </c>
-      <c r="O18" s="3">
-        <f>+O17*0.1</f>
-        <v>14.439684999999997</v>
-      </c>
-      <c r="P18" s="3">
-        <f>+P17*0.1</f>
-        <v>25.749337250000011</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>+Q17*0.1</f>
-        <v>41.988348112499999</v>
       </c>
       <c r="R18" s="3">
         <f>+R17*0.1</f>
+        <v>14.439684999999997</v>
+      </c>
+      <c r="S18" s="3">
+        <f>+S17*0.1</f>
+        <v>25.749337250000011</v>
+      </c>
+      <c r="T18" s="3">
+        <f>+T17*0.1</f>
+        <v>41.988348112499999</v>
+      </c>
+      <c r="U18" s="3">
+        <f>+U17*0.1</f>
         <v>60.087385518124989</v>
       </c>
-      <c r="S18" s="3">
-        <f>+S17*0.15</f>
+      <c r="V18" s="3">
+        <f>+V17*0.15</f>
         <v>120.06757619104687</v>
       </c>
-      <c r="T18" s="3">
-        <f>+T17*0.15</f>
+      <c r="W18" s="3">
+        <f>+W17*0.15</f>
         <v>152.7898130005992</v>
       </c>
-      <c r="U18" s="3">
-        <f>+U17*0.15</f>
+      <c r="X18" s="3">
+        <f>+X17*0.15</f>
         <v>188.29547565062916</v>
       </c>
-      <c r="V18" s="3">
-        <f>+V17*0.2</f>
+      <c r="Y18" s="3">
+        <f>+Y17*0.2</f>
         <v>302.10951391088088</v>
       </c>
-      <c r="W18" s="3">
-        <f>+W17*0.2</f>
+      <c r="Z18" s="3">
+        <f>+Z17*0.2</f>
         <v>356.86298960642489</v>
       </c>
     </row>
-    <row r="19" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:F19" si="5">+C17-C18</f>
+        <f t="shared" ref="C19:D19" si="8">+C17-C18</f>
+        <v>9.4289999999999914</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="8"/>
+        <v>10.135000000000016</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:I19" si="9">+E17-E18</f>
+        <v>8.0220000000000145</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="9"/>
         <v>21.650999999999993</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="5"/>
+      <c r="G19" s="4">
+        <f t="shared" si="9"/>
         <v>22.886999999999997</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <f>+G17-G18</f>
+      <c r="H19" s="4">
+        <f t="shared" si="9"/>
+        <v>24.052999999999994</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="9"/>
+        <v>18.818999999999974</v>
+      </c>
+      <c r="J19" s="4">
+        <f>+J17-J18</f>
         <v>36.265999999999948</v>
       </c>
-      <c r="H19" s="4">
-        <f>+H17-H18</f>
+      <c r="K19" s="4">
+        <f>+K17-K18</f>
         <v>37.676000000000016</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
       <c r="L19" s="4">
         <f>+L17-L18</f>
-        <v>12.434000000000019</v>
+        <v>38.981962800000005</v>
       </c>
       <c r="M19" s="4">
         <f>+M17-M18</f>
+        <v>39.329892000000001</v>
+      </c>
+      <c r="O19" s="4">
+        <f>+O17-O18</f>
+        <v>12.434000000000019</v>
+      </c>
+      <c r="P19" s="4">
+        <f>+P17-P18</f>
         <v>27.807000000000031</v>
       </c>
-      <c r="N19" s="4">
-        <f>+N17-N18</f>
+      <c r="Q19" s="4">
+        <f>+Q17-Q18</f>
         <v>86.939000000000007</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" ref="O19:W19" si="6">+O17-O18</f>
+      <c r="R19" s="4">
+        <f t="shared" ref="R19:Z19" si="10">+R17-R18</f>
         <v>129.95716499999997</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="6"/>
+      <c r="S19" s="4">
+        <f t="shared" si="10"/>
         <v>231.74403525000008</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="6"/>
+      <c r="T19" s="4">
+        <f t="shared" si="10"/>
         <v>377.89513301249997</v>
       </c>
-      <c r="R19" s="4">
-        <f t="shared" si="6"/>
+      <c r="U19" s="4">
+        <f t="shared" si="10"/>
         <v>540.78646966312488</v>
       </c>
-      <c r="S19" s="4">
-        <f t="shared" si="6"/>
+      <c r="V19" s="4">
+        <f t="shared" si="10"/>
         <v>680.38293174926559</v>
       </c>
-      <c r="T19" s="4">
-        <f t="shared" si="6"/>
+      <c r="W19" s="4">
+        <f t="shared" si="10"/>
         <v>865.80894033672871</v>
       </c>
-      <c r="U19" s="4">
-        <f t="shared" si="6"/>
+      <c r="X19" s="4">
+        <f t="shared" si="10"/>
         <v>1067.0076953535652</v>
       </c>
-      <c r="V19" s="4">
-        <f t="shared" si="6"/>
+      <c r="Y19" s="4">
+        <f t="shared" si="10"/>
         <v>1208.4380556435235</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" si="6"/>
+      <c r="Z19" s="4">
+        <f t="shared" si="10"/>
         <v>1427.4519584256993</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="11">
+        <f>+C19/C21</f>
+        <v>7.1323751891074059</v>
+      </c>
+      <c r="D20" s="11">
+        <f>+D19/D21</f>
+        <v>7.6375282592313614</v>
+      </c>
+      <c r="E20" s="11">
+        <f>+E19/E21</f>
+        <v>5.8384279475982632</v>
+      </c>
+      <c r="F20" s="11">
+        <f>+F19/F21</f>
+        <v>13.145719489981781</v>
+      </c>
+      <c r="G20" s="11">
+        <f>+G19/G21</f>
+        <v>0.73170497778061949</v>
+      </c>
+      <c r="H20" s="11">
+        <f>+H19/H21</f>
+        <v>0.20433596968898929</v>
+      </c>
+      <c r="I20" s="11">
+        <f>+I19/I21</f>
+        <v>0.16050319829424284</v>
+      </c>
+      <c r="J20" s="11">
+        <f>+J19/J21</f>
+        <v>0.30750576583909872</v>
+      </c>
+      <c r="K20" s="11">
+        <f>+K19/K21</f>
+        <v>0.31850267560507578</v>
+      </c>
+      <c r="L20" s="11">
+        <f>+L19/L21</f>
+        <v>0.32954293056952777</v>
+      </c>
+      <c r="M20" s="11">
+        <f>+M19/M21</f>
+        <v>0.33248422956945162</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.327</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.647</v>
+      </c>
+      <c r="G21" s="4">
+        <v>31.279</v>
+      </c>
+      <c r="H21" s="4">
+        <v>117.71299999999999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>117.25</v>
+      </c>
+      <c r="J21" s="4">
+        <v>117.93600000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>118.291</v>
+      </c>
+      <c r="L21" s="4">
+        <f>+K21</f>
+        <v>118.291</v>
+      </c>
+      <c r="M21" s="4">
+        <f>+L21</f>
+        <v>118.291</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G23" s="7">
         <f>+G7/C7-1</f>
+        <v>0.2720744583011443</v>
+      </c>
+      <c r="H23" s="7">
+        <f>+H7/D7-1</f>
+        <v>0.26063134613451289</v>
+      </c>
+      <c r="I23" s="7">
+        <f>+I7/E7-1</f>
+        <v>0.36352791780505633</v>
+      </c>
+      <c r="J23" s="7">
+        <f>+J7/F7-1</f>
         <v>0.27537016884721988</v>
       </c>
-      <c r="H21" s="7">
-        <f>+H7/D7-1</f>
+      <c r="K23" s="7">
+        <f>+K7/G7-1</f>
         <v>0.35050956077133955</v>
       </c>
-      <c r="M21" s="10">
-        <f>+M7/L7-1</f>
+      <c r="L23" s="7">
+        <f>+L7/H7-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M23" s="7">
+        <f>+M7/I7-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P23" s="9">
+        <f>+P7/O7-1</f>
         <v>0.1280755571197747</v>
       </c>
-      <c r="N21" s="10">
-        <f>+N7/M7-1</f>
+      <c r="Q23" s="9">
+        <f>+Q7/P7-1</f>
         <v>0.29174872677573349</v>
       </c>
-      <c r="O21" s="10">
-        <f t="shared" ref="O21:W21" si="7">+O7/N7-1</f>
+      <c r="R23" s="9">
+        <f t="shared" ref="R23:Z23" si="11">+R7/Q7-1</f>
         <v>0.32460546178125416</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" si="7"/>
+      <c r="S23" s="9">
+        <f t="shared" si="11"/>
         <v>0.36674816625916895</v>
       </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="7"/>
+      <c r="T23" s="9">
+        <f t="shared" si="11"/>
         <v>0.35778175313059024</v>
       </c>
-      <c r="R21" s="10">
-        <f t="shared" si="7"/>
+      <c r="U23" s="9">
+        <f t="shared" si="11"/>
         <v>0.26350461133069825</v>
       </c>
-      <c r="S21" s="10">
-        <f t="shared" si="7"/>
+      <c r="V23" s="9">
+        <f t="shared" si="11"/>
         <v>0.20855057351407713</v>
       </c>
-      <c r="T21" s="10">
-        <f t="shared" si="7"/>
+      <c r="W23" s="9">
+        <f t="shared" si="11"/>
         <v>0.17256255392579822</v>
       </c>
-      <c r="U21" s="10">
-        <f t="shared" si="7"/>
+      <c r="X23" s="9">
+        <f t="shared" si="11"/>
         <v>0.14716703458425306</v>
       </c>
-      <c r="V21" s="10">
-        <f t="shared" si="7"/>
+      <c r="Y23" s="9">
+        <f t="shared" si="11"/>
         <v>0.12828736369467597</v>
       </c>
-      <c r="W21" s="10">
-        <f t="shared" si="7"/>
+      <c r="Z23" s="9">
+        <f t="shared" si="11"/>
         <v>0.11370096645821492</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="10">
-        <f>+L13/L7</f>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:M24" si="12">+C13/C7</f>
+        <v>0.18838980245006062</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.18963362966580027</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.18337630353638368</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.24898194334336204</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.26276793873702958</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.25341065091453863</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.22500423322232871</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.25237253191045755</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2670721000449689</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O24" s="9">
+        <f>+O13/O7</f>
         <v>0.1642823433425587</v>
       </c>
-      <c r="M22" s="10">
-        <f>+M13/M7</f>
+      <c r="P24" s="9">
+        <f>+P13/P7</f>
         <v>0.17369384828378415</v>
       </c>
-      <c r="N22" s="10">
-        <f>+N13/N7</f>
+      <c r="Q24" s="9">
+        <f>+Q13/Q7</f>
         <v>0.24749005077535335</v>
       </c>
-      <c r="O22" s="10">
-        <f t="shared" ref="O22:W22" si="8">+O13/O7</f>
+      <c r="R24" s="9">
+        <f t="shared" ref="R24:Z24" si="13">+R13/R7</f>
         <v>0.26</v>
       </c>
-      <c r="P22" s="10">
-        <f t="shared" si="8"/>
+      <c r="S24" s="9">
+        <f t="shared" si="13"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="8"/>
+      <c r="T24" s="9">
+        <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
-      <c r="R22" s="10">
-        <f t="shared" si="8"/>
+      <c r="U24" s="9">
+        <f t="shared" si="13"/>
         <v>0.32</v>
       </c>
-      <c r="S22" s="10">
-        <f t="shared" si="8"/>
+      <c r="V24" s="9">
+        <f t="shared" si="13"/>
         <v>0.34</v>
       </c>
-      <c r="T22" s="10">
-        <f t="shared" si="8"/>
+      <c r="W24" s="9">
+        <f t="shared" si="13"/>
         <v>0.36</v>
       </c>
-      <c r="U22" s="10">
-        <f t="shared" si="8"/>
+      <c r="X24" s="9">
+        <f t="shared" si="13"/>
         <v>0.37999999999999995</v>
       </c>
-      <c r="V22" s="10">
-        <f t="shared" si="8"/>
+      <c r="Y24" s="9">
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="W22" s="10">
-        <f t="shared" si="8"/>
+      <c r="Z24" s="9">
+        <f t="shared" si="13"/>
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="10">
-        <f>+L15/L7</f>
+      <c r="O25" s="9">
+        <f>+O15/O7</f>
         <v>3.4717000751891762E-2</v>
       </c>
-      <c r="M23" s="10">
-        <f>+M15/M7</f>
+      <c r="P25" s="9">
+        <f>+P15/P7</f>
         <v>4.9540965647319149E-2</v>
       </c>
-      <c r="N23" s="10">
-        <f>+N15/N7</f>
+      <c r="Q25" s="9">
+        <f>+Q15/Q7</f>
         <v>0.10821325648414985</v>
       </c>
-      <c r="O23" s="10">
-        <f t="shared" ref="O23:W23" si="9">+O15/O7</f>
+      <c r="R25" s="9">
+        <f t="shared" ref="R25:Z25" si="14">+R15/R7</f>
         <v>0.14959683602005719</v>
       </c>
-      <c r="P23" s="10">
-        <f t="shared" si="9"/>
+      <c r="S25" s="9">
+        <f t="shared" si="14"/>
         <v>0.19518311489948764</v>
       </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="9"/>
+      <c r="T25" s="9">
+        <f t="shared" si="14"/>
         <v>0.23440939300428751</v>
       </c>
-      <c r="R23" s="10">
-        <f t="shared" si="9"/>
+      <c r="U25" s="9">
+        <f t="shared" si="14"/>
         <v>0.26549276929589877</v>
       </c>
-      <c r="S23" s="10">
-        <f t="shared" si="9"/>
+      <c r="V25" s="9">
+        <f t="shared" si="14"/>
         <v>0.29264361004530226</v>
       </c>
-      <c r="T23" s="10">
-        <f t="shared" si="9"/>
+      <c r="W25" s="9">
+        <f t="shared" si="14"/>
         <v>0.31759355499972813</v>
       </c>
-      <c r="U23" s="10">
-        <f t="shared" si="9"/>
+      <c r="X25" s="9">
+        <f t="shared" si="14"/>
         <v>0.34118545433410008</v>
       </c>
-      <c r="V23" s="10">
-        <f t="shared" si="9"/>
+      <c r="Y25" s="9">
+        <f t="shared" si="14"/>
         <v>0.36387864097339701</v>
       </c>
-      <c r="W23" s="10">
-        <f t="shared" si="9"/>
+      <c r="Z25" s="9">
+        <f t="shared" si="14"/>
         <v>0.38594469420409155</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
         <v>25.678999999999998</v>
       </c>
-      <c r="D26" s="4">
+      <c r="G28" s="4">
         <v>47.11</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>38.386000000000003</v>
       </c>
-      <c r="H26" s="4">
+      <c r="K28" s="4">
         <v>87.295000000000002</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="3">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="O28" s="3">
         <v>3.3929999999999998</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P28" s="3">
         <v>6.0380000000000003</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q28" s="3">
         <v>97.100999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
         <v>39.097000000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="G29" s="4">
         <v>72.477999999999994</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>33.686999999999998</v>
       </c>
-      <c r="H27" s="4">
+      <c r="K29" s="4">
         <v>59.881999999999998</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="3">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="O29" s="3">
         <v>56.308999999999997</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P29" s="3">
         <v>104.161</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q29" s="3">
         <v>168.80600000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4">
-        <f>+C26-C27</f>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <f>+F28-F29</f>
         <v>-13.418000000000003</v>
       </c>
-      <c r="D28" s="4">
-        <f>+D26-D27</f>
+      <c r="G30" s="4">
+        <f>+G28-G29</f>
         <v>-25.367999999999995</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <f>+G26-G27</f>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
+        <f>+J28-J29</f>
         <v>4.6990000000000052</v>
       </c>
-      <c r="H28" s="4">
-        <f>+H26-H27</f>
+      <c r="K30" s="4">
+        <f>+K28-K29</f>
         <v>27.413000000000004</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="3">
-        <f t="shared" ref="L28:M28" si="10">+L26-L27</f>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="3">
+        <f t="shared" ref="O30:P30" si="15">+O28-O29</f>
         <v>-52.915999999999997</v>
       </c>
-      <c r="M28" s="3">
-        <f t="shared" si="10"/>
+      <c r="P30" s="3">
+        <f t="shared" si="15"/>
         <v>-98.123000000000005</v>
       </c>
-      <c r="N28" s="3">
-        <f>+N26-N27</f>
+      <c r="Q30" s="3">
+        <f>+Q28-Q29</f>
         <v>-71.705000000000013</v>
       </c>
     </row>
